--- a/Etc/予定感/アクティブラーニング_予定.xlsx
+++ b/Etc/予定感/アクティブラーニング_予定.xlsx
@@ -1,32 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tec207\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\JJC_ActiveLearning_2023_9gatsu\Etc\予定感\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398AEE22-F1C9-435F-8CC4-637E02078944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23955" windowHeight="9435" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日付ごとにやること" sheetId="1" r:id="rId1"/>
-    <sheet name="準備しておくこと" sheetId="2" r:id="rId2"/>
-    <sheet name="学習内容" sheetId="3" r:id="rId3"/>
+    <sheet name="名簿" sheetId="4" r:id="rId2"/>
+    <sheet name="準備しておくこと" sheetId="2" r:id="rId3"/>
+    <sheet name="学習内容" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="116">
   <si>
     <t>やること</t>
     <phoneticPr fontId="1"/>
@@ -418,6 +431,239 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチャで複数個のアイテムを得られるようにする</t>
+    <rPh sb="4" eb="7">
+      <t>フクスウコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返し</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安倍磨長永</t>
+  </si>
+  <si>
+    <t>情報システム科1年</t>
+  </si>
+  <si>
+    <t>伊藤優月</t>
+  </si>
+  <si>
+    <t>今泉琴葉</t>
+  </si>
+  <si>
+    <t>内山幸花</t>
+  </si>
+  <si>
+    <t>大嶋眞弥</t>
+  </si>
+  <si>
+    <t>大谷孔雲</t>
+  </si>
+  <si>
+    <t>荻野隼輔</t>
+  </si>
+  <si>
+    <t>小山龍斗</t>
+  </si>
+  <si>
+    <t>立神皓基</t>
+  </si>
+  <si>
+    <t>中沢大翔</t>
+  </si>
+  <si>
+    <t>橋本佑太</t>
+  </si>
+  <si>
+    <t>廣川結愛</t>
+  </si>
+  <si>
+    <t>福永友希</t>
+  </si>
+  <si>
+    <t>宮下旺己</t>
+  </si>
+  <si>
+    <t>鷲頭朝陽</t>
+  </si>
+  <si>
+    <t>嶋田有馬</t>
+  </si>
+  <si>
+    <t>ビジネスライセンス科（情報）1年</t>
+  </si>
+  <si>
+    <t>浅野健太</t>
+  </si>
+  <si>
+    <t>ゲーム・ＣＧクリエイター科1年</t>
+  </si>
+  <si>
+    <t>足利悠樹</t>
+  </si>
+  <si>
+    <t>今井昇吾</t>
+  </si>
+  <si>
+    <t>岡﨑優里</t>
+  </si>
+  <si>
+    <t>北島龍希</t>
+  </si>
+  <si>
+    <t>木葉さつき</t>
+  </si>
+  <si>
+    <t>齊藤拓海</t>
+  </si>
+  <si>
+    <t>徃住唯斗</t>
+  </si>
+  <si>
+    <t>中村洸晴</t>
+  </si>
+  <si>
+    <t>馬場大翔</t>
+  </si>
+  <si>
+    <t>細谷勇斗</t>
+  </si>
+  <si>
+    <t>森田慎之介</t>
+  </si>
+  <si>
+    <t>藤本歩希</t>
+  </si>
+  <si>
+    <t>大学併修1年</t>
+  </si>
+  <si>
+    <t>保坂翔也</t>
+  </si>
+  <si>
+    <t>森山快</t>
+  </si>
+  <si>
+    <t>𠮷﨑唯莉</t>
+  </si>
+  <si>
+    <t>池田俊佳</t>
+  </si>
+  <si>
+    <t>情報システム科2年</t>
+  </si>
+  <si>
+    <t>井上航</t>
+  </si>
+  <si>
+    <t>小池正人</t>
+  </si>
+  <si>
+    <t>小林隆之介</t>
+  </si>
+  <si>
+    <t>齊川颯人</t>
+  </si>
+  <si>
+    <t>佐藤翼</t>
+  </si>
+  <si>
+    <t>佐藤佑耶</t>
+  </si>
+  <si>
+    <t>田丸さくら</t>
+  </si>
+  <si>
+    <t>中楽人</t>
+  </si>
+  <si>
+    <t>野田隆洋</t>
+  </si>
+  <si>
+    <t>平野雅夕</t>
+  </si>
+  <si>
+    <t>松矢航平</t>
+  </si>
+  <si>
+    <t>峯井勇輔</t>
+  </si>
+  <si>
+    <t>宮澤玖苑</t>
+  </si>
+  <si>
+    <t>宮沢勇人</t>
+  </si>
+  <si>
+    <t>村松悠生</t>
+  </si>
+  <si>
+    <t>護國史也</t>
+  </si>
+  <si>
+    <t>横田瑛祐</t>
+  </si>
+  <si>
+    <t>涌井陽大</t>
+  </si>
+  <si>
+    <t>伊倉絢哉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片所純</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所清佳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西山翔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学科</t>
+    <rPh sb="0" eb="2">
+      <t>ガッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -425,8 +671,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +686,19 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -457,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -465,13 +724,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,9 +770,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{DF01B54A-F326-4846-BB25-5C3B5E0A9AF6}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{A15FDEBA-D546-492C-9175-31E7DAA6161E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,11 +1061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -892,7 +1193,871 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0616626-61A2-47C0-A079-826FD7D722C3}">
+  <dimension ref="A1:F56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <f t="shared" ref="A3:A56" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>13</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>3</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>5</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>9</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>10</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <v>11</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>13</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>14</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <v>15</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>16</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>17</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <v>18</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>19</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -952,12 +2117,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1019,57 +2184,65 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Etc/予定感/アクティブラーニング_予定.xlsx
+++ b/Etc/予定感/アクティブラーニング_予定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\JJC_ActiveLearning_2023_9gatsu\Etc\予定感\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398AEE22-F1C9-435F-8CC4-637E02078944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8291397-03C6-4968-A811-BC43491F6DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8715" yWindow="0" windowWidth="16980" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日付ごとにやること" sheetId="1" r:id="rId1"/>
@@ -760,7 +760,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,14 +770,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1196,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0616626-61A2-47C0-A079-826FD7D722C3}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1208,20 +1205,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2121,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
